--- a/NEL_cases_new.xlsx
+++ b/NEL_cases_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.elc.nhs.uk\NetworkDrive\TowerHamletsCCG\NHSTHCCG\Financial strategy\Analysis\Covid-19\Beds and demand modelling\Peak demand estimate\SEIR model python code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheethamn\Desktop\SEIR model python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,10 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +136,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -214,25 +221,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.7516518569150154E-2</c:v>
+                  <c:v>9.8483316481294242E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13579403053087263</c:v>
+                  <c:v>0.13265925176946411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13374344953292322</c:v>
+                  <c:v>0.13872598584428716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20460241512873092</c:v>
+                  <c:v>0.20060667340748231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14240145819093186</c:v>
+                  <c:v>0.15085945399393327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13169286853497381</c:v>
+                  <c:v>0.12618806875631952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15424925951241741</c:v>
+                  <c:v>0.15247724974721941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,7 +415,797 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2856</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3731</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3845</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3932</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4032</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4111</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4167</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4218</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4351</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4469</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4543</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4574</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4589</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4623</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4640</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4663</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4742</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4754</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4765</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4862</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4894</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4905</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4922</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4928</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4935</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4940</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CF1-432D-A744-28A01C8E1EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="601731288"/>
+        <c:axId val="601732600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="601731288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601732600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="601732600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601731288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -951,6 +1748,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -978,6 +2291,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1249,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,43 +2967,43 @@
       </c>
       <c r="Q9">
         <f>MAX(B:B)</f>
-        <v>4389</v>
+        <v>4945</v>
       </c>
       <c r="R9">
         <f t="shared" ref="R9:Z9" si="2">MAX(C:C)</f>
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>587</v>
+        <v>686</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>898</v>
+        <v>992</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>625</v>
+        <v>746</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="Y9">
         <f t="shared" si="2"/>
-        <v>1640</v>
+        <v>1919</v>
       </c>
       <c r="Z9">
         <f t="shared" si="2"/>
-        <v>2153</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1705,39 +3048,39 @@
       </c>
       <c r="R10" s="2">
         <f>R9/$Q$9</f>
-        <v>9.7516518569150154E-2</v>
+        <v>9.8483316481294242E-2</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ref="S10:Z10" si="3">S9/$Q$9</f>
-        <v>0.13579403053087263</v>
+        <v>0.13265925176946411</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="3"/>
-        <v>0.13374344953292322</v>
+        <v>0.13872598584428716</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="3"/>
-        <v>0.20460241512873092</v>
+        <v>0.20060667340748231</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="3"/>
-        <v>0.14240145819093186</v>
+        <v>0.15085945399393327</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
-        <v>0.13169286853497381</v>
+        <v>0.12618806875631952</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="3"/>
-        <v>0.15424925951241741</v>
+        <v>0.15247724974721941</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="3"/>
-        <v>0.37366142629300525</v>
+        <v>0.38806875631951465</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>0.49054454317612212</v>
+        <v>0.47927199191102121</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2078,7 +3421,7 @@
         <v>43909</v>
       </c>
       <c r="B20">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <v>33</v>
@@ -2096,7 +3439,7 @@
         <v>51</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I20">
         <v>42</v>
@@ -2107,7 +3450,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,7 +3458,7 @@
         <v>43910</v>
       </c>
       <c r="B21">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21">
         <v>42</v>
@@ -2133,7 +3476,7 @@
         <v>56</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>55</v>
@@ -2144,7 +3487,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2152,7 +3495,7 @@
         <v>43911</v>
       </c>
       <c r="B22">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C22">
         <v>52</v>
@@ -2170,7 +3513,7 @@
         <v>66</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22">
         <v>67</v>
@@ -2181,7 +3524,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2189,16 +3532,16 @@
         <v>43912</v>
       </c>
       <c r="B23">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>89</v>
       </c>
       <c r="E23">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>86</v>
@@ -2207,7 +3550,7 @@
         <v>78</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>70</v>
@@ -2218,7 +3561,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,16 +3569,16 @@
         <v>43913</v>
       </c>
       <c r="B24">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <v>109</v>
       </c>
       <c r="E24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24">
         <v>112</v>
@@ -2244,7 +3587,7 @@
         <v>95</v>
       </c>
       <c r="H24">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24">
         <v>91</v>
@@ -2255,7 +3598,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2263,16 +3606,16 @@
         <v>43914</v>
       </c>
       <c r="B25">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C25">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>129</v>
       </c>
       <c r="E25">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>124</v>
@@ -2281,7 +3624,7 @@
         <v>106</v>
       </c>
       <c r="H25">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25">
         <v>102</v>
@@ -2292,7 +3635,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2300,10 +3643,10 @@
         <v>43915</v>
       </c>
       <c r="B26">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>145</v>
@@ -2325,7 +3668,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
@@ -2337,10 +3680,10 @@
         <v>43916</v>
       </c>
       <c r="B27">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C27">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>169</v>
@@ -2362,7 +3705,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -2377,10 +3720,10 @@
         <v>1183</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>119</v>
@@ -2399,7 +3742,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
@@ -2414,10 +3757,10 @@
         <v>1295</v>
       </c>
       <c r="C29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29">
         <v>125</v>
@@ -2436,7 +3779,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
@@ -2448,19 +3791,19 @@
         <v>43919</v>
       </c>
       <c r="B30">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C30">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30">
         <v>134</v>
       </c>
       <c r="F30">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G30">
         <v>191</v>
@@ -2473,11 +3816,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2485,10 +3828,10 @@
         <v>43920</v>
       </c>
       <c r="B31">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C31">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>232</v>
@@ -2497,10 +3840,10 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G31">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31">
         <v>236</v>
@@ -2514,7 +3857,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2522,10 +3865,10 @@
         <v>43921</v>
       </c>
       <c r="B32">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C32">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32">
         <v>264</v>
@@ -2534,13 +3877,13 @@
         <v>176</v>
       </c>
       <c r="F32">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G32">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H32">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I32">
         <v>292</v>
@@ -2551,7 +3894,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2562,7 +3905,7 @@
         <v>1960</v>
       </c>
       <c r="C33">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33">
         <v>296</v>
@@ -2571,16 +3914,16 @@
         <v>205</v>
       </c>
       <c r="F33">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G33">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H33">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I33">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
@@ -2599,7 +3942,7 @@
         <v>2165</v>
       </c>
       <c r="C34">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34">
         <v>334</v>
@@ -2608,16 +3951,16 @@
         <v>235</v>
       </c>
       <c r="F34">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G34">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H34">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I34">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
@@ -2636,7 +3979,7 @@
         <v>2378</v>
       </c>
       <c r="C35">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>359</v>
@@ -2645,16 +3988,16 @@
         <v>267</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G35">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H35">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I35">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
@@ -2673,7 +4016,7 @@
         <v>2537</v>
       </c>
       <c r="C36">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36">
         <v>383</v>
@@ -2682,16 +4025,16 @@
         <v>288</v>
       </c>
       <c r="F36">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G36">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H36">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I36">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
@@ -2710,7 +4053,7 @@
         <v>2684</v>
       </c>
       <c r="C37">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D37">
         <v>403</v>
@@ -2719,16 +4062,16 @@
         <v>308</v>
       </c>
       <c r="F37">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G37">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H37">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I37">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
@@ -2744,10 +4087,10 @@
         <v>43927</v>
       </c>
       <c r="B38">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C38">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38">
         <v>426</v>
@@ -2756,20 +4099,20 @@
         <v>330</v>
       </c>
       <c r="F38">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G38">
         <v>383</v>
       </c>
       <c r="H38">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I38">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
@@ -2781,10 +4124,10 @@
         <v>43928</v>
       </c>
       <c r="B39">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C39">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D39">
         <v>453</v>
@@ -2793,20 +4136,20 @@
         <v>363</v>
       </c>
       <c r="F39">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G39">
         <v>430</v>
       </c>
       <c r="H39">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I39">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
@@ -2818,10 +4161,10 @@
         <v>43929</v>
       </c>
       <c r="B40">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C40">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40">
         <v>472</v>
@@ -2830,20 +4173,20 @@
         <v>394</v>
       </c>
       <c r="F40">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G40">
         <v>459</v>
       </c>
       <c r="H40">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I40">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
@@ -2855,10 +4198,10 @@
         <v>43930</v>
       </c>
       <c r="B41">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="C41">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D41">
         <v>488</v>
@@ -2867,20 +4210,20 @@
         <v>419</v>
       </c>
       <c r="F41">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G41">
         <v>489</v>
       </c>
       <c r="H41">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I41">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
@@ -2892,10 +4235,10 @@
         <v>43931</v>
       </c>
       <c r="B42">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C42">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42">
         <v>502</v>
@@ -2904,20 +4247,20 @@
         <v>445</v>
       </c>
       <c r="F42">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G42">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H42">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I42">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
@@ -2929,10 +4272,10 @@
         <v>43932</v>
       </c>
       <c r="B43">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="C43">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43">
         <v>517</v>
@@ -2941,20 +4284,20 @@
         <v>463</v>
       </c>
       <c r="F43">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G43">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H43">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I43">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
@@ -2966,32 +4309,32 @@
         <v>43933</v>
       </c>
       <c r="B44">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="C44">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D44">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E44">
         <v>482</v>
       </c>
       <c r="F44">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="G44">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H44">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I44">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -3003,32 +4346,32 @@
         <v>43934</v>
       </c>
       <c r="B45">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C45">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D45">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E45">
         <v>499</v>
       </c>
       <c r="F45">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="G45">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H45">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I45">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
@@ -3043,29 +4386,29 @@
         <v>3932</v>
       </c>
       <c r="C46">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D46">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E46">
         <v>513</v>
       </c>
       <c r="F46">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G46">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H46">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I46">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
@@ -3080,29 +4423,29 @@
         <v>4032</v>
       </c>
       <c r="C47">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E47">
         <v>529</v>
       </c>
       <c r="F47">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="G47">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H47">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I47">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
@@ -3114,32 +4457,32 @@
         <v>43937</v>
       </c>
       <c r="B48">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="C48">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D48">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E48">
         <v>548</v>
       </c>
       <c r="F48">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G48">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H48">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I48">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
@@ -3154,25 +4497,25 @@
         <v>4167</v>
       </c>
       <c r="C49">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D49">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E49">
         <v>556</v>
       </c>
       <c r="F49">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G49">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H49">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I49">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -3180,7 +4523,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3188,36 +4531,36 @@
         <v>43939</v>
       </c>
       <c r="B50">
-        <v>4215</v>
+        <v>4218</v>
       </c>
       <c r="C50">
         <v>404</v>
       </c>
       <c r="D50">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E50">
         <v>565</v>
       </c>
       <c r="F50">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G50">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H50">
         <v>554</v>
       </c>
       <c r="I50">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3225,36 +4568,36 @@
         <v>43940</v>
       </c>
       <c r="B51">
-        <v>4270</v>
+        <v>4274</v>
       </c>
       <c r="C51">
         <v>415</v>
       </c>
       <c r="D51">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E51">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F51">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G51">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H51">
         <v>560</v>
       </c>
       <c r="I51">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3262,36 +4605,36 @@
         <v>43941</v>
       </c>
       <c r="B52">
-        <v>4347</v>
+        <v>4351</v>
       </c>
       <c r="C52">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D52">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E52">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F52">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G52">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H52">
         <v>569</v>
       </c>
       <c r="I52">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3299,36 +4642,36 @@
         <v>43942</v>
       </c>
       <c r="B53">
-        <v>4384</v>
+        <v>4410</v>
       </c>
       <c r="C53">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D53">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E53">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F53">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="G53">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="H53">
         <v>577</v>
       </c>
       <c r="I53">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3336,36 +4679,998 @@
         <v>43943</v>
       </c>
       <c r="B54">
-        <v>4389</v>
+        <v>4469</v>
       </c>
       <c r="C54">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D54">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="E54">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="F54">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="G54">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="H54">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="I54">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>1640</v>
+        <v>1686</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>2153</v>
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>4510</v>
+      </c>
+      <c r="C55">
+        <v>442</v>
+      </c>
+      <c r="D55">
+        <v>613</v>
+      </c>
+      <c r="E55">
+        <v>611</v>
+      </c>
+      <c r="F55">
+        <v>920</v>
+      </c>
+      <c r="G55">
+        <v>650</v>
+      </c>
+      <c r="H55">
+        <v>586</v>
+      </c>
+      <c r="I55">
+        <v>688</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55:J64" si="4">C55+E55+G55</f>
+        <v>1703</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55:K64" si="5">F55+H55+I55</f>
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B56">
+        <v>4543</v>
+      </c>
+      <c r="C56">
+        <v>444</v>
+      </c>
+      <c r="D56">
+        <v>615</v>
+      </c>
+      <c r="E56">
+        <v>618</v>
+      </c>
+      <c r="F56">
+        <v>929</v>
+      </c>
+      <c r="G56">
+        <v>653</v>
+      </c>
+      <c r="H56">
+        <v>587</v>
+      </c>
+      <c r="I56">
+        <v>697</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>1715</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B57">
+        <v>4574</v>
+      </c>
+      <c r="C57">
+        <v>447</v>
+      </c>
+      <c r="D57">
+        <v>616</v>
+      </c>
+      <c r="E57">
+        <v>623</v>
+      </c>
+      <c r="F57">
+        <v>935</v>
+      </c>
+      <c r="G57">
+        <v>658</v>
+      </c>
+      <c r="H57">
+        <v>591</v>
+      </c>
+      <c r="I57">
+        <v>704</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>1728</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B58">
+        <v>4589</v>
+      </c>
+      <c r="C58">
+        <v>448</v>
+      </c>
+      <c r="D58">
+        <v>619</v>
+      </c>
+      <c r="E58">
+        <v>624</v>
+      </c>
+      <c r="F58">
+        <v>937</v>
+      </c>
+      <c r="G58">
+        <v>659</v>
+      </c>
+      <c r="H58">
+        <v>595</v>
+      </c>
+      <c r="I58">
+        <v>707</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>1731</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B59">
+        <v>4623</v>
+      </c>
+      <c r="C59">
+        <v>452</v>
+      </c>
+      <c r="D59">
+        <v>622</v>
+      </c>
+      <c r="E59">
+        <v>632</v>
+      </c>
+      <c r="F59">
+        <v>941</v>
+      </c>
+      <c r="G59">
+        <v>666</v>
+      </c>
+      <c r="H59">
+        <v>597</v>
+      </c>
+      <c r="I59">
+        <v>713</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>1750</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B60">
+        <v>4640</v>
+      </c>
+      <c r="C60">
+        <v>454</v>
+      </c>
+      <c r="D60">
+        <v>623</v>
+      </c>
+      <c r="E60">
+        <v>634</v>
+      </c>
+      <c r="F60">
+        <v>943</v>
+      </c>
+      <c r="G60">
+        <v>673</v>
+      </c>
+      <c r="H60">
+        <v>598</v>
+      </c>
+      <c r="I60">
+        <v>715</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>1761</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B61">
+        <v>4663</v>
+      </c>
+      <c r="C61">
+        <v>456</v>
+      </c>
+      <c r="D61">
+        <v>627</v>
+      </c>
+      <c r="E61">
+        <v>636</v>
+      </c>
+      <c r="F61">
+        <v>948</v>
+      </c>
+      <c r="G61">
+        <v>677</v>
+      </c>
+      <c r="H61">
+        <v>602</v>
+      </c>
+      <c r="I61">
+        <v>717</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>1769</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B62">
+        <v>4703</v>
+      </c>
+      <c r="C62">
+        <v>456</v>
+      </c>
+      <c r="D62">
+        <v>629</v>
+      </c>
+      <c r="E62">
+        <v>640</v>
+      </c>
+      <c r="F62">
+        <v>957</v>
+      </c>
+      <c r="G62">
+        <v>693</v>
+      </c>
+      <c r="H62">
+        <v>605</v>
+      </c>
+      <c r="I62">
+        <v>723</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>1789</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B63">
+        <v>4742</v>
+      </c>
+      <c r="C63">
+        <v>461</v>
+      </c>
+      <c r="D63">
+        <v>635</v>
+      </c>
+      <c r="E63">
+        <v>657</v>
+      </c>
+      <c r="F63">
+        <v>958</v>
+      </c>
+      <c r="G63">
+        <v>697</v>
+      </c>
+      <c r="H63">
+        <v>607</v>
+      </c>
+      <c r="I63">
+        <v>727</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>1815</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B64">
+        <v>4754</v>
+      </c>
+      <c r="C64">
+        <v>462</v>
+      </c>
+      <c r="D64">
+        <v>637</v>
+      </c>
+      <c r="E64">
+        <v>661</v>
+      </c>
+      <c r="F64">
+        <v>959</v>
+      </c>
+      <c r="G64">
+        <v>699</v>
+      </c>
+      <c r="H64">
+        <v>609</v>
+      </c>
+      <c r="I64">
+        <v>727</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>1822</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4765</v>
+      </c>
+      <c r="C65" s="4">
+        <v>464</v>
+      </c>
+      <c r="D65" s="4">
+        <v>638</v>
+      </c>
+      <c r="E65" s="4">
+        <v>663</v>
+      </c>
+      <c r="F65" s="4">
+        <v>961</v>
+      </c>
+      <c r="G65" s="4">
+        <v>701</v>
+      </c>
+      <c r="H65" s="4">
+        <v>611</v>
+      </c>
+      <c r="I65" s="4">
+        <v>727</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" ref="J65:J71" si="6">C65+E65+G65</f>
+        <v>1828</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" ref="K65:K71" si="7">F65+H65+I65</f>
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4798</v>
+      </c>
+      <c r="C66" s="4">
+        <v>467</v>
+      </c>
+      <c r="D66" s="4">
+        <v>639</v>
+      </c>
+      <c r="E66" s="4">
+        <v>672</v>
+      </c>
+      <c r="F66" s="4">
+        <v>967</v>
+      </c>
+      <c r="G66" s="4">
+        <v>707</v>
+      </c>
+      <c r="H66" s="4">
+        <v>612</v>
+      </c>
+      <c r="I66" s="4">
+        <v>734</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="6"/>
+        <v>1846</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="7"/>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4838</v>
+      </c>
+      <c r="C67" s="4">
+        <v>471</v>
+      </c>
+      <c r="D67" s="4">
+        <v>643</v>
+      </c>
+      <c r="E67" s="4">
+        <v>677</v>
+      </c>
+      <c r="F67" s="4">
+        <v>971</v>
+      </c>
+      <c r="G67" s="4">
+        <v>727</v>
+      </c>
+      <c r="H67" s="4">
+        <v>612</v>
+      </c>
+      <c r="I67" s="4">
+        <v>737</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" si="6"/>
+        <v>1875</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="7"/>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4862</v>
+      </c>
+      <c r="C68" s="4">
+        <v>473</v>
+      </c>
+      <c r="D68" s="4">
+        <v>647</v>
+      </c>
+      <c r="E68" s="4">
+        <v>679</v>
+      </c>
+      <c r="F68" s="4">
+        <v>978</v>
+      </c>
+      <c r="G68" s="4">
+        <v>732</v>
+      </c>
+      <c r="H68" s="4">
+        <v>613</v>
+      </c>
+      <c r="I68" s="4">
+        <v>740</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="6"/>
+        <v>1884</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="7"/>
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4891</v>
+      </c>
+      <c r="C69" s="4">
+        <v>479</v>
+      </c>
+      <c r="D69" s="4">
+        <v>650</v>
+      </c>
+      <c r="E69" s="4">
+        <v>679</v>
+      </c>
+      <c r="F69" s="4">
+        <v>984</v>
+      </c>
+      <c r="G69" s="4">
+        <v>741</v>
+      </c>
+      <c r="H69" s="4">
+        <v>614</v>
+      </c>
+      <c r="I69" s="4">
+        <v>744</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="6"/>
+        <v>1899</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="7"/>
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4894</v>
+      </c>
+      <c r="C70" s="4">
+        <v>480</v>
+      </c>
+      <c r="D70" s="4">
+        <v>650</v>
+      </c>
+      <c r="E70" s="4">
+        <v>679</v>
+      </c>
+      <c r="F70" s="4">
+        <v>985</v>
+      </c>
+      <c r="G70" s="4">
+        <v>741</v>
+      </c>
+      <c r="H70" s="4">
+        <v>615</v>
+      </c>
+      <c r="I70" s="4">
+        <v>744</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="7"/>
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4905</v>
+      </c>
+      <c r="C71" s="4">
+        <v>481</v>
+      </c>
+      <c r="D71" s="4">
+        <v>650</v>
+      </c>
+      <c r="E71" s="4">
+        <v>679</v>
+      </c>
+      <c r="F71" s="4">
+        <v>986</v>
+      </c>
+      <c r="G71" s="4">
+        <v>742</v>
+      </c>
+      <c r="H71" s="4">
+        <v>617</v>
+      </c>
+      <c r="I71" s="4">
+        <v>750</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="6"/>
+        <v>1902</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="7"/>
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4911</v>
+      </c>
+      <c r="C72" s="4">
+        <v>482</v>
+      </c>
+      <c r="D72" s="4">
+        <v>650</v>
+      </c>
+      <c r="E72" s="4">
+        <v>680</v>
+      </c>
+      <c r="F72" s="4">
+        <v>986</v>
+      </c>
+      <c r="G72" s="4">
+        <v>744</v>
+      </c>
+      <c r="H72" s="4">
+        <v>618</v>
+      </c>
+      <c r="I72" s="4">
+        <v>751</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" ref="J72:J76" si="8">C72+E72+G72</f>
+        <v>1906</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" ref="K72:K76" si="9">F72+H72+I72</f>
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4922</v>
+      </c>
+      <c r="C73" s="4">
+        <v>483</v>
+      </c>
+      <c r="D73" s="4">
+        <v>651</v>
+      </c>
+      <c r="E73" s="4">
+        <v>682</v>
+      </c>
+      <c r="F73" s="4">
+        <v>988</v>
+      </c>
+      <c r="G73" s="4">
+        <v>744</v>
+      </c>
+      <c r="H73" s="4">
+        <v>623</v>
+      </c>
+      <c r="I73" s="4">
+        <v>751</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="8"/>
+        <v>1909</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="9"/>
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B74" s="4">
+        <v>4928</v>
+      </c>
+      <c r="C74" s="4">
+        <v>484</v>
+      </c>
+      <c r="D74" s="4">
+        <v>652</v>
+      </c>
+      <c r="E74" s="4">
+        <v>683</v>
+      </c>
+      <c r="F74" s="4">
+        <v>988</v>
+      </c>
+      <c r="G74" s="4">
+        <v>745</v>
+      </c>
+      <c r="H74" s="4">
+        <v>624</v>
+      </c>
+      <c r="I74" s="4">
+        <v>752</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="8"/>
+        <v>1912</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="9"/>
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4935</v>
+      </c>
+      <c r="C75" s="4">
+        <v>486</v>
+      </c>
+      <c r="D75" s="4">
+        <v>654</v>
+      </c>
+      <c r="E75" s="4">
+        <v>683</v>
+      </c>
+      <c r="F75" s="4">
+        <v>989</v>
+      </c>
+      <c r="G75" s="4">
+        <v>745</v>
+      </c>
+      <c r="H75" s="4">
+        <v>624</v>
+      </c>
+      <c r="I75" s="4">
+        <v>754</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="8"/>
+        <v>1914</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="9"/>
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4940</v>
+      </c>
+      <c r="C76" s="4">
+        <v>487</v>
+      </c>
+      <c r="D76" s="4">
+        <v>655</v>
+      </c>
+      <c r="E76" s="4">
+        <v>684</v>
+      </c>
+      <c r="F76" s="4">
+        <v>991</v>
+      </c>
+      <c r="G76" s="4">
+        <v>745</v>
+      </c>
+      <c r="H76" s="4">
+        <v>624</v>
+      </c>
+      <c r="I76" s="4">
+        <v>754</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="8"/>
+        <v>1916</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="9"/>
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4945</v>
+      </c>
+      <c r="C77" s="4">
+        <v>487</v>
+      </c>
+      <c r="D77" s="4">
+        <v>656</v>
+      </c>
+      <c r="E77" s="4">
+        <v>686</v>
+      </c>
+      <c r="F77" s="4">
+        <v>992</v>
+      </c>
+      <c r="G77" s="4">
+        <v>746</v>
+      </c>
+      <c r="H77" s="4">
+        <v>624</v>
+      </c>
+      <c r="I77" s="4">
+        <v>754</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" ref="J77:J79" si="10">C77+E77+G77</f>
+        <v>1919</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" ref="K77:K79" si="11">F77+H77+I77</f>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4945</v>
+      </c>
+      <c r="C78" s="4">
+        <v>487</v>
+      </c>
+      <c r="D78" s="4">
+        <v>656</v>
+      </c>
+      <c r="E78" s="4">
+        <v>686</v>
+      </c>
+      <c r="F78" s="4">
+        <v>992</v>
+      </c>
+      <c r="G78" s="4">
+        <v>746</v>
+      </c>
+      <c r="H78" s="4">
+        <v>624</v>
+      </c>
+      <c r="I78" s="4">
+        <v>754</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="10"/>
+        <v>1919</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="11"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4945</v>
+      </c>
+      <c r="C79" s="3">
+        <v>487</v>
+      </c>
+      <c r="D79" s="3">
+        <v>656</v>
+      </c>
+      <c r="E79" s="3">
+        <v>686</v>
+      </c>
+      <c r="F79" s="3">
+        <v>992</v>
+      </c>
+      <c r="G79" s="3">
+        <v>746</v>
+      </c>
+      <c r="H79" s="3">
+        <v>624</v>
+      </c>
+      <c r="I79" s="3">
+        <v>754</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="10"/>
+        <v>1919</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" si="11"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B80" s="3">
+        <v>4945</v>
+      </c>
+      <c r="C80" s="3">
+        <v>487</v>
+      </c>
+      <c r="D80" s="3">
+        <v>656</v>
+      </c>
+      <c r="E80" s="3">
+        <v>686</v>
+      </c>
+      <c r="F80" s="3">
+        <v>992</v>
+      </c>
+      <c r="G80" s="3">
+        <v>746</v>
+      </c>
+      <c r="H80" s="3">
+        <v>624</v>
+      </c>
+      <c r="I80" s="3">
+        <v>754</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" ref="J80" si="12">C80+E80+G80</f>
+        <v>1919</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" ref="K80" si="13">F80+H80+I80</f>
+        <v>2370</v>
       </c>
     </row>
   </sheetData>

--- a/NEL_cases_new.xlsx
+++ b/NEL_cases_new.xlsx
@@ -221,25 +221,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.8483316481294242E-2</c:v>
+                  <c:v>9.8797081443502272E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13265925176946411</c:v>
+                  <c:v>0.13310984026819167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13872598584428716</c:v>
+                  <c:v>0.14178662985604418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20060667340748231</c:v>
+                  <c:v>0.19818576217708539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15085945399393327</c:v>
+                  <c:v>0.15046341944389666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12618806875631952</c:v>
+                  <c:v>0.12561624926050088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15247724974721941</c:v>
+                  <c:v>0.15204101755077895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,10 +494,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$79</c:f>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43891</c:v>
                 </c:pt>
@@ -731,16 +731,82 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$79</c:f>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -784,13 +850,13 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>270</c:v>
@@ -805,7 +871,7 @@
                   <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>519</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>635</c:v>
@@ -829,151 +895,217 @@
                   <c:v>1415</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1562</c:v>
+                  <c:v>1563</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1768</c:v>
+                  <c:v>1769</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1960</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2165</c:v>
+                  <c:v>2167</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2378</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2537</c:v>
+                  <c:v>2539</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2684</c:v>
+                  <c:v>2686</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2856</c:v>
+                  <c:v>2859</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3062</c:v>
+                  <c:v>3065</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3238</c:v>
+                  <c:v>3241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3397</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3512</c:v>
+                  <c:v>3515</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3616</c:v>
+                  <c:v>3618</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3731</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3845</c:v>
+                  <c:v>3847</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3932</c:v>
+                  <c:v>3934</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4032</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4111</c:v>
+                  <c:v>4113</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4167</c:v>
+                  <c:v>4170</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4218</c:v>
+                  <c:v>4221</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4274</c:v>
+                  <c:v>4277</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4351</c:v>
+                  <c:v>4355</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4410</c:v>
+                  <c:v>4414</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4469</c:v>
+                  <c:v>4473</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4510</c:v>
+                  <c:v>4516</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4543</c:v>
+                  <c:v>4549</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4574</c:v>
+                  <c:v>4580</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4589</c:v>
+                  <c:v>4595</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4623</c:v>
+                  <c:v>4629</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4640</c:v>
+                  <c:v>4646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4663</c:v>
+                  <c:v>4669</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4703</c:v>
+                  <c:v>4709</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4742</c:v>
+                  <c:v>4748</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4754</c:v>
+                  <c:v>4760</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4765</c:v>
+                  <c:v>4771</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4798</c:v>
+                  <c:v>4804</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4838</c:v>
+                  <c:v>4844</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4862</c:v>
+                  <c:v>4867</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4891</c:v>
+                  <c:v>4893</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4894</c:v>
+                  <c:v>4896</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4905</c:v>
+                  <c:v>4906</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4911</c:v>
+                  <c:v>4912</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4922</c:v>
+                  <c:v>4920</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>4928</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4935</c:v>
+                  <c:v>4936</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4940</c:v>
+                  <c:v>4943</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4945</c:v>
+                  <c:v>4955</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4945</c:v>
+                  <c:v>4956</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4945</c:v>
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4972</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4982</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5010</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5010</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5030</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5036</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5042</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5047</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5060</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5068</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5070</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5071</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,43 +3099,43 @@
       </c>
       <c r="Q9">
         <f>MAX(B:B)</f>
-        <v>4945</v>
+        <v>5071</v>
       </c>
       <c r="R9">
         <f t="shared" ref="R9:Z9" si="2">MAX(C:C)</f>
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="Y9">
         <f t="shared" si="2"/>
-        <v>1919</v>
+        <v>1983</v>
       </c>
       <c r="Z9">
         <f t="shared" si="2"/>
-        <v>2370</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -3048,39 +3180,39 @@
       </c>
       <c r="R10" s="2">
         <f>R9/$Q$9</f>
-        <v>9.8483316481294242E-2</v>
+        <v>9.8797081443502272E-2</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ref="S10:Z10" si="3">S9/$Q$9</f>
-        <v>0.13265925176946411</v>
+        <v>0.13310984026819167</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="3"/>
-        <v>0.13872598584428716</v>
+        <v>0.14178662985604418</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="3"/>
-        <v>0.20060667340748231</v>
+        <v>0.19818576217708539</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="3"/>
-        <v>0.15085945399393327</v>
+        <v>0.15046341944389666</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="3"/>
-        <v>0.12618806875631952</v>
+        <v>0.12561624926050088</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="3"/>
-        <v>0.15247724974721941</v>
+        <v>0.15204101755077895</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="3"/>
-        <v>0.38806875631951465</v>
+        <v>0.39104713074344311</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>0.47927199191102121</v>
+        <v>0.47584302898836522</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -3273,7 +3405,7 @@
         <v>43905</v>
       </c>
       <c r="B16">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3282,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>21</v>
@@ -3298,7 +3430,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -3310,7 +3442,7 @@
         <v>43906</v>
       </c>
       <c r="B17">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -3319,7 +3451,7 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -3335,7 +3467,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
@@ -3347,7 +3479,7 @@
         <v>43907</v>
       </c>
       <c r="B18">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -3356,7 +3488,7 @@
         <v>43</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>35</v>
@@ -3372,7 +3504,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
@@ -3393,7 +3525,7 @@
         <v>48</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>47</v>
@@ -3402,18 +3534,18 @@
         <v>39</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>33</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3430,7 +3562,7 @@
         <v>61</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>53</v>
@@ -3439,18 +3571,18 @@
         <v>51</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20">
         <v>42</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3467,7 +3599,7 @@
         <v>70</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>67</v>
@@ -3476,18 +3608,18 @@
         <v>56</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21">
         <v>55</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3504,7 +3636,7 @@
         <v>75</v>
       </c>
       <c r="E22">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>73</v>
@@ -3513,18 +3645,18 @@
         <v>66</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22">
         <v>67</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3532,7 +3664,7 @@
         <v>43912</v>
       </c>
       <c r="B23">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C23">
         <v>59</v>
@@ -3541,23 +3673,23 @@
         <v>89</v>
       </c>
       <c r="E23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23">
         <v>78</v>
       </c>
       <c r="H23">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23">
         <v>70</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
@@ -3578,27 +3710,27 @@
         <v>109</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H24">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24">
         <v>91</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,27 +3747,27 @@
         <v>129</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I25">
         <v>102</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3652,27 +3784,27 @@
         <v>145</v>
       </c>
       <c r="E26">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I26">
         <v>126</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,27 +3821,27 @@
         <v>169</v>
       </c>
       <c r="E27">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H27">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I27">
         <v>160</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3726,27 +3858,27 @@
         <v>186</v>
       </c>
       <c r="E28">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28">
         <v>187</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3763,27 +3895,27 @@
         <v>198</v>
       </c>
       <c r="E29">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G29">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I29">
         <v>208</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3800,27 +3932,27 @@
         <v>213</v>
       </c>
       <c r="E30">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G30">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I30">
         <v>232</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3828,7 +3960,7 @@
         <v>43920</v>
       </c>
       <c r="B31">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C31">
         <v>145</v>
@@ -3837,27 +3969,27 @@
         <v>232</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F31">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G31">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I31">
         <v>256</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3865,7 +3997,7 @@
         <v>43921</v>
       </c>
       <c r="B32">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C32">
         <v>163</v>
@@ -3874,27 +4006,27 @@
         <v>264</v>
       </c>
       <c r="E32">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F32">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G32">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H32">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I32">
         <v>292</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3902,7 +4034,7 @@
         <v>43922</v>
       </c>
       <c r="B33">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C33">
         <v>184</v>
@@ -3911,27 +4043,27 @@
         <v>296</v>
       </c>
       <c r="E33">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F33">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G33">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H33">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,7 +4071,7 @@
         <v>43923</v>
       </c>
       <c r="B34">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="C34">
         <v>206</v>
@@ -3948,27 +4080,27 @@
         <v>334</v>
       </c>
       <c r="E34">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F34">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G34">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H34">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I34">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,7 +4108,7 @@
         <v>43924</v>
       </c>
       <c r="B35">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="C35">
         <v>221</v>
@@ -3985,27 +4117,27 @@
         <v>359</v>
       </c>
       <c r="E35">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F35">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G35">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H35">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I35">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4013,7 +4145,7 @@
         <v>43925</v>
       </c>
       <c r="B36">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="C36">
         <v>227</v>
@@ -4022,27 +4154,27 @@
         <v>383</v>
       </c>
       <c r="E36">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F36">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G36">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H36">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I36">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4050,7 +4182,7 @@
         <v>43926</v>
       </c>
       <c r="B37">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="C37">
         <v>243</v>
@@ -4059,27 +4191,27 @@
         <v>403</v>
       </c>
       <c r="E37">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F37">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G37">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H37">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I37">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4087,7 +4219,7 @@
         <v>43927</v>
       </c>
       <c r="B38">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="C38">
         <v>254</v>
@@ -4096,27 +4228,27 @@
         <v>426</v>
       </c>
       <c r="E38">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F38">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G38">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H38">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I38">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,7 +4256,7 @@
         <v>43928</v>
       </c>
       <c r="B39">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="C39">
         <v>276</v>
@@ -4133,27 +4265,27 @@
         <v>453</v>
       </c>
       <c r="E39">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F39">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G39">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H39">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I39">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4161,7 +4293,7 @@
         <v>43929</v>
       </c>
       <c r="B40">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="C40">
         <v>294</v>
@@ -4170,27 +4302,27 @@
         <v>472</v>
       </c>
       <c r="E40">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F40">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G40">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H40">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I40">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4198,7 +4330,7 @@
         <v>43930</v>
       </c>
       <c r="B41">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="C41">
         <v>309</v>
@@ -4207,27 +4339,27 @@
         <v>488</v>
       </c>
       <c r="E41">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F41">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G41">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H41">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I41">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4235,7 +4367,7 @@
         <v>43931</v>
       </c>
       <c r="B42">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="C42">
         <v>319</v>
@@ -4244,27 +4376,27 @@
         <v>502</v>
       </c>
       <c r="E42">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F42">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G42">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H42">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I42">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,7 +4404,7 @@
         <v>43932</v>
       </c>
       <c r="B43">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="C43">
         <v>323</v>
@@ -4281,27 +4413,27 @@
         <v>517</v>
       </c>
       <c r="E43">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F43">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G43">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H43">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I43">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,7 +4441,7 @@
         <v>43933</v>
       </c>
       <c r="B44">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="C44">
         <v>338</v>
@@ -4318,27 +4450,27 @@
         <v>528</v>
       </c>
       <c r="E44">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F44">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G44">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H44">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I44">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4346,7 +4478,7 @@
         <v>43934</v>
       </c>
       <c r="B45">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="C45">
         <v>355</v>
@@ -4355,27 +4487,27 @@
         <v>536</v>
       </c>
       <c r="E45">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F45">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G45">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H45">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I45">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4383,7 +4515,7 @@
         <v>43935</v>
       </c>
       <c r="B46">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="C46">
         <v>368</v>
@@ -4392,27 +4524,27 @@
         <v>544</v>
       </c>
       <c r="E46">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F46">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G46">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H46">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I46">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,7 +4552,7 @@
         <v>43936</v>
       </c>
       <c r="B47">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C47">
         <v>379</v>
@@ -4429,27 +4561,27 @@
         <v>556</v>
       </c>
       <c r="E47">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F47">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G47">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H47">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I47">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4457,7 +4589,7 @@
         <v>43937</v>
       </c>
       <c r="B48">
-        <v>4111</v>
+        <v>4113</v>
       </c>
       <c r="C48">
         <v>389</v>
@@ -4466,27 +4598,27 @@
         <v>563</v>
       </c>
       <c r="E48">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F48">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G48">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H48">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I48">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4494,7 +4626,7 @@
         <v>43938</v>
       </c>
       <c r="B49">
-        <v>4167</v>
+        <v>4170</v>
       </c>
       <c r="C49">
         <v>398</v>
@@ -4503,27 +4635,27 @@
         <v>572</v>
       </c>
       <c r="E49">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F49">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G49">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H49">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I49">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4531,7 +4663,7 @@
         <v>43939</v>
       </c>
       <c r="B50">
-        <v>4218</v>
+        <v>4221</v>
       </c>
       <c r="C50">
         <v>404</v>
@@ -4540,27 +4672,27 @@
         <v>577</v>
       </c>
       <c r="E50">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F50">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G50">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H50">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I50">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4568,7 +4700,7 @@
         <v>43940</v>
       </c>
       <c r="B51">
-        <v>4274</v>
+        <v>4277</v>
       </c>
       <c r="C51">
         <v>415</v>
@@ -4577,27 +4709,27 @@
         <v>582</v>
       </c>
       <c r="E51">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F51">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G51">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H51">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I51">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4605,7 +4737,7 @@
         <v>43941</v>
       </c>
       <c r="B52">
-        <v>4351</v>
+        <v>4355</v>
       </c>
       <c r="C52">
         <v>422</v>
@@ -4614,27 +4746,27 @@
         <v>596</v>
       </c>
       <c r="E52">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F52">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G52">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H52">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I52">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4642,7 +4774,7 @@
         <v>43942</v>
       </c>
       <c r="B53">
-        <v>4410</v>
+        <v>4414</v>
       </c>
       <c r="C53">
         <v>433</v>
@@ -4651,27 +4783,27 @@
         <v>600</v>
       </c>
       <c r="E53">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F53">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G53">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H53">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I53">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4679,7 +4811,7 @@
         <v>43943</v>
       </c>
       <c r="B54">
-        <v>4469</v>
+        <v>4473</v>
       </c>
       <c r="C54">
         <v>439</v>
@@ -4688,27 +4820,27 @@
         <v>606</v>
       </c>
       <c r="E54">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F54">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G54">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H54">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I54">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4716,7 +4848,7 @@
         <v>43944</v>
       </c>
       <c r="B55">
-        <v>4510</v>
+        <v>4516</v>
       </c>
       <c r="C55">
         <v>442</v>
@@ -4725,23 +4857,23 @@
         <v>613</v>
       </c>
       <c r="E55">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F55">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G55">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H55">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I55">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J55">
         <f t="shared" ref="J55:J64" si="4">C55+E55+G55</f>
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="K55">
         <f t="shared" ref="K55:K64" si="5">F55+H55+I55</f>
@@ -4753,7 +4885,7 @@
         <v>43945</v>
       </c>
       <c r="B56">
-        <v>4543</v>
+        <v>4549</v>
       </c>
       <c r="C56">
         <v>444</v>
@@ -4762,23 +4894,23 @@
         <v>615</v>
       </c>
       <c r="E56">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F56">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G56">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H56">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I56">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>1715</v>
+        <v>1721</v>
       </c>
       <c r="K56">
         <f t="shared" si="5"/>
@@ -4790,7 +4922,7 @@
         <v>43946</v>
       </c>
       <c r="B57">
-        <v>4574</v>
+        <v>4580</v>
       </c>
       <c r="C57">
         <v>447</v>
@@ -4799,23 +4931,23 @@
         <v>616</v>
       </c>
       <c r="E57">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F57">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G57">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H57">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I57">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="K57">
         <f t="shared" si="5"/>
@@ -4827,7 +4959,7 @@
         <v>43947</v>
       </c>
       <c r="B58">
-        <v>4589</v>
+        <v>4595</v>
       </c>
       <c r="C58">
         <v>448</v>
@@ -4836,23 +4968,23 @@
         <v>619</v>
       </c>
       <c r="E58">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F58">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G58">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H58">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I58">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>1731</v>
+        <v>1737</v>
       </c>
       <c r="K58">
         <f t="shared" si="5"/>
@@ -4864,7 +4996,7 @@
         <v>43948</v>
       </c>
       <c r="B59">
-        <v>4623</v>
+        <v>4629</v>
       </c>
       <c r="C59">
         <v>452</v>
@@ -4873,23 +5005,23 @@
         <v>622</v>
       </c>
       <c r="E59">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F59">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G59">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H59">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I59">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>1750</v>
+        <v>1756</v>
       </c>
       <c r="K59">
         <f t="shared" si="5"/>
@@ -4901,7 +5033,7 @@
         <v>43949</v>
       </c>
       <c r="B60">
-        <v>4640</v>
+        <v>4646</v>
       </c>
       <c r="C60">
         <v>454</v>
@@ -4910,23 +5042,23 @@
         <v>623</v>
       </c>
       <c r="E60">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F60">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G60">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H60">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I60">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="K60">
         <f t="shared" si="5"/>
@@ -4938,7 +5070,7 @@
         <v>43950</v>
       </c>
       <c r="B61">
-        <v>4663</v>
+        <v>4669</v>
       </c>
       <c r="C61">
         <v>456</v>
@@ -4947,23 +5079,23 @@
         <v>627</v>
       </c>
       <c r="E61">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F61">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G61">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H61">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I61">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="K61">
         <f t="shared" si="5"/>
@@ -4975,7 +5107,7 @@
         <v>43951</v>
       </c>
       <c r="B62">
-        <v>4703</v>
+        <v>4709</v>
       </c>
       <c r="C62">
         <v>456</v>
@@ -4984,23 +5116,23 @@
         <v>629</v>
       </c>
       <c r="E62">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F62">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G62">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H62">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I62">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="K62">
         <f t="shared" si="5"/>
@@ -5012,7 +5144,7 @@
         <v>43952</v>
       </c>
       <c r="B63">
-        <v>4742</v>
+        <v>4748</v>
       </c>
       <c r="C63">
         <v>461</v>
@@ -5021,23 +5153,23 @@
         <v>635</v>
       </c>
       <c r="E63">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F63">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G63">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H63">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I63">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
-        <v>1815</v>
+        <v>1821</v>
       </c>
       <c r="K63">
         <f t="shared" si="5"/>
@@ -5049,7 +5181,7 @@
         <v>43953</v>
       </c>
       <c r="B64">
-        <v>4754</v>
+        <v>4760</v>
       </c>
       <c r="C64">
         <v>462</v>
@@ -5058,23 +5190,23 @@
         <v>637</v>
       </c>
       <c r="E64">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F64">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G64">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H64">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I64">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>1822</v>
+        <v>1828</v>
       </c>
       <c r="K64">
         <f t="shared" si="5"/>
@@ -5086,7 +5218,7 @@
         <v>43954</v>
       </c>
       <c r="B65" s="4">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C65" s="4">
         <v>464</v>
@@ -5095,23 +5227,23 @@
         <v>638</v>
       </c>
       <c r="E65" s="4">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F65" s="4">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G65" s="4">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H65" s="4">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I65" s="4">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" ref="J65:J71" si="6">C65+E65+G65</f>
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" ref="K65:K71" si="7">F65+H65+I65</f>
@@ -5123,7 +5255,7 @@
         <v>43955</v>
       </c>
       <c r="B66" s="4">
-        <v>4798</v>
+        <v>4804</v>
       </c>
       <c r="C66" s="4">
         <v>467</v>
@@ -5132,23 +5264,23 @@
         <v>639</v>
       </c>
       <c r="E66" s="4">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F66" s="4">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G66" s="4">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H66" s="4">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I66" s="4">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" si="6"/>
-        <v>1846</v>
+        <v>1852</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="7"/>
@@ -5160,7 +5292,7 @@
         <v>43956</v>
       </c>
       <c r="B67" s="4">
-        <v>4838</v>
+        <v>4844</v>
       </c>
       <c r="C67" s="4">
         <v>471</v>
@@ -5169,23 +5301,23 @@
         <v>643</v>
       </c>
       <c r="E67" s="4">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F67" s="4">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G67" s="4">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="H67" s="4">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I67" s="4">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" si="6"/>
-        <v>1875</v>
+        <v>1881</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" si="7"/>
@@ -5197,7 +5329,7 @@
         <v>43957</v>
       </c>
       <c r="B68" s="4">
-        <v>4862</v>
+        <v>4867</v>
       </c>
       <c r="C68" s="4">
         <v>473</v>
@@ -5206,27 +5338,27 @@
         <v>647</v>
       </c>
       <c r="E68" s="4">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F68" s="4">
         <v>978</v>
       </c>
       <c r="G68" s="4">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H68" s="4">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I68" s="4">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="6"/>
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" si="7"/>
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,7 +5366,7 @@
         <v>43958</v>
       </c>
       <c r="B69" s="4">
-        <v>4891</v>
+        <v>4893</v>
       </c>
       <c r="C69" s="4">
         <v>479</v>
@@ -5243,7 +5375,7 @@
         <v>650</v>
       </c>
       <c r="E69" s="4">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F69" s="4">
         <v>984</v>
@@ -5252,18 +5384,18 @@
         <v>741</v>
       </c>
       <c r="H69" s="4">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I69" s="4">
         <v>744</v>
       </c>
       <c r="J69" s="4">
         <f t="shared" si="6"/>
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="7"/>
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5271,7 +5403,7 @@
         <v>43959</v>
       </c>
       <c r="B70" s="4">
-        <v>4894</v>
+        <v>4896</v>
       </c>
       <c r="C70" s="4">
         <v>480</v>
@@ -5280,7 +5412,7 @@
         <v>650</v>
       </c>
       <c r="E70" s="4">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F70" s="4">
         <v>985</v>
@@ -5289,18 +5421,18 @@
         <v>741</v>
       </c>
       <c r="H70" s="4">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I70" s="4">
         <v>744</v>
       </c>
       <c r="J70" s="4">
         <f t="shared" si="6"/>
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="7"/>
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5308,7 +5440,7 @@
         <v>43960</v>
       </c>
       <c r="B71" s="4">
-        <v>4905</v>
+        <v>4906</v>
       </c>
       <c r="C71" s="4">
         <v>481</v>
@@ -5317,7 +5449,7 @@
         <v>650</v>
       </c>
       <c r="E71" s="4">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F71" s="4">
         <v>986</v>
@@ -5326,18 +5458,18 @@
         <v>742</v>
       </c>
       <c r="H71" s="4">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I71" s="4">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" si="6"/>
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="K71" s="4">
         <f t="shared" si="7"/>
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5345,7 +5477,7 @@
         <v>43961</v>
       </c>
       <c r="B72" s="4">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="C72" s="4">
         <v>482</v>
@@ -5354,7 +5486,7 @@
         <v>650</v>
       </c>
       <c r="E72" s="4">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F72" s="4">
         <v>986</v>
@@ -5363,18 +5495,18 @@
         <v>744</v>
       </c>
       <c r="H72" s="4">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I72" s="4">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" ref="J72:J76" si="8">C72+E72+G72</f>
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" ref="K72:K76" si="9">F72+H72+I72</f>
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5382,7 +5514,7 @@
         <v>43962</v>
       </c>
       <c r="B73" s="4">
-        <v>4922</v>
+        <v>4920</v>
       </c>
       <c r="C73" s="4">
         <v>483</v>
@@ -5391,27 +5523,27 @@
         <v>651</v>
       </c>
       <c r="E73" s="4">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F73" s="4">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G73" s="4">
         <v>744</v>
       </c>
       <c r="H73" s="4">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I73" s="4">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J73" s="4">
         <f t="shared" si="8"/>
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="9"/>
-        <v>2362</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5422,13 +5554,13 @@
         <v>4928</v>
       </c>
       <c r="C74" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D74" s="4">
         <v>652</v>
       </c>
       <c r="E74" s="4">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F74" s="4">
         <v>988</v>
@@ -5437,18 +5569,18 @@
         <v>745</v>
       </c>
       <c r="H74" s="4">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I74" s="4">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" si="8"/>
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="K74" s="4">
         <f t="shared" si="9"/>
-        <v>2364</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5456,36 +5588,36 @@
         <v>43964</v>
       </c>
       <c r="B75" s="4">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="C75" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D75" s="4">
         <v>654</v>
       </c>
       <c r="E75" s="4">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F75" s="4">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G75" s="4">
         <v>745</v>
       </c>
       <c r="H75" s="4">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I75" s="4">
         <v>754</v>
       </c>
       <c r="J75" s="4">
         <f t="shared" si="8"/>
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="K75" s="4">
         <f t="shared" si="9"/>
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5493,16 +5625,16 @@
         <v>43965</v>
       </c>
       <c r="B76" s="4">
-        <v>4940</v>
+        <v>4943</v>
       </c>
       <c r="C76" s="4">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D76" s="4">
         <v>655</v>
       </c>
       <c r="E76" s="4">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F76" s="4">
         <v>991</v>
@@ -5511,18 +5643,18 @@
         <v>745</v>
       </c>
       <c r="H76" s="4">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I76" s="4">
         <v>754</v>
       </c>
       <c r="J76" s="4">
         <f t="shared" si="8"/>
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="K76" s="4">
         <f t="shared" si="9"/>
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5530,36 +5662,36 @@
         <v>43966</v>
       </c>
       <c r="B77" s="4">
-        <v>4945</v>
+        <v>4955</v>
       </c>
       <c r="C77" s="4">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D77" s="4">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E77" s="4">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F77" s="4">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G77" s="4">
         <v>746</v>
       </c>
       <c r="H77" s="4">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I77" s="4">
         <v>754</v>
       </c>
       <c r="J77" s="4">
         <f t="shared" ref="J77:J79" si="10">C77+E77+G77</f>
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="K77" s="4">
         <f t="shared" ref="K77:K79" si="11">F77+H77+I77</f>
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,110 +5699,961 @@
         <v>43967</v>
       </c>
       <c r="B78" s="4">
-        <v>4945</v>
+        <v>4956</v>
       </c>
       <c r="C78" s="4">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D78" s="4">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E78" s="4">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F78" s="4">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G78" s="4">
         <v>746</v>
       </c>
       <c r="H78" s="4">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I78" s="4">
         <v>754</v>
       </c>
       <c r="J78" s="4">
         <f t="shared" si="10"/>
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="K78" s="4">
         <f t="shared" si="11"/>
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
-      <c r="B79" s="3">
-        <v>4945</v>
-      </c>
-      <c r="C79" s="3">
-        <v>487</v>
-      </c>
-      <c r="D79" s="3">
-        <v>656</v>
-      </c>
-      <c r="E79" s="3">
-        <v>686</v>
-      </c>
-      <c r="F79" s="3">
-        <v>992</v>
-      </c>
-      <c r="G79" s="3">
+      <c r="B79" s="4">
+        <v>4965</v>
+      </c>
+      <c r="C79" s="4">
+        <v>491</v>
+      </c>
+      <c r="D79" s="4">
+        <v>659</v>
+      </c>
+      <c r="E79" s="4">
+        <v>695</v>
+      </c>
+      <c r="F79" s="4">
+        <v>996</v>
+      </c>
+      <c r="G79" s="4">
         <v>746</v>
       </c>
-      <c r="H79" s="3">
-        <v>624</v>
-      </c>
-      <c r="I79" s="3">
-        <v>754</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="H79" s="4">
+        <v>623</v>
+      </c>
+      <c r="I79" s="4">
+        <v>755</v>
+      </c>
+      <c r="J79" s="4">
         <f t="shared" si="10"/>
-        <v>1919</v>
-      </c>
-      <c r="K79" s="3">
+        <v>1932</v>
+      </c>
+      <c r="K79" s="4">
         <f t="shared" si="11"/>
-        <v>2370</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
-      <c r="B80" s="3">
-        <v>4945</v>
-      </c>
-      <c r="C80" s="3">
-        <v>487</v>
-      </c>
-      <c r="D80" s="3">
-        <v>656</v>
-      </c>
-      <c r="E80" s="3">
-        <v>686</v>
-      </c>
-      <c r="F80" s="3">
-        <v>992</v>
-      </c>
-      <c r="G80" s="3">
-        <v>746</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="B80" s="4">
+        <v>4972</v>
+      </c>
+      <c r="C80" s="4">
+        <v>492</v>
+      </c>
+      <c r="D80" s="4">
+        <v>660</v>
+      </c>
+      <c r="E80" s="4">
+        <v>696</v>
+      </c>
+      <c r="F80" s="4">
+        <v>996</v>
+      </c>
+      <c r="G80" s="4">
+        <v>749</v>
+      </c>
+      <c r="H80" s="4">
         <v>624</v>
       </c>
-      <c r="I80" s="3">
-        <v>754</v>
-      </c>
-      <c r="J80" s="3">
+      <c r="I80" s="4">
+        <v>755</v>
+      </c>
+      <c r="J80" s="4">
         <f t="shared" ref="J80" si="12">C80+E80+G80</f>
-        <v>1919</v>
-      </c>
-      <c r="K80" s="3">
+        <v>1937</v>
+      </c>
+      <c r="K80" s="4">
         <f t="shared" ref="K80" si="13">F80+H80+I80</f>
-        <v>2370</v>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4982</v>
+      </c>
+      <c r="C81" s="4">
+        <v>493</v>
+      </c>
+      <c r="D81" s="4">
+        <v>661</v>
+      </c>
+      <c r="E81" s="4">
+        <v>697</v>
+      </c>
+      <c r="F81" s="4">
+        <v>996</v>
+      </c>
+      <c r="G81" s="4">
+        <v>750</v>
+      </c>
+      <c r="H81" s="4">
+        <v>626</v>
+      </c>
+      <c r="I81" s="4">
+        <v>759</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" ref="J81:J86" si="14">C81+E81+G81</f>
+        <v>1940</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" ref="K81:K86" si="15">F81+H81+I81</f>
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4996</v>
+      </c>
+      <c r="C82" s="4">
+        <v>495</v>
+      </c>
+      <c r="D82" s="4">
+        <v>662</v>
+      </c>
+      <c r="E82" s="4">
+        <v>702</v>
+      </c>
+      <c r="F82" s="4">
+        <v>996</v>
+      </c>
+      <c r="G82" s="4">
+        <v>755</v>
+      </c>
+      <c r="H82" s="4">
+        <v>627</v>
+      </c>
+      <c r="I82" s="4">
+        <v>759</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="14"/>
+        <v>1952</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="15"/>
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B83" s="4">
+        <v>5004</v>
+      </c>
+      <c r="C83" s="4">
+        <v>496</v>
+      </c>
+      <c r="D83" s="4">
+        <v>662</v>
+      </c>
+      <c r="E83" s="4">
+        <v>706</v>
+      </c>
+      <c r="F83" s="4">
+        <v>997</v>
+      </c>
+      <c r="G83" s="4">
+        <v>755</v>
+      </c>
+      <c r="H83" s="4">
+        <v>627</v>
+      </c>
+      <c r="I83" s="4">
+        <v>761</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="14"/>
+        <v>1957</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="15"/>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B84" s="4">
+        <v>5010</v>
+      </c>
+      <c r="C84" s="4">
+        <v>496</v>
+      </c>
+      <c r="D84" s="4">
+        <v>662</v>
+      </c>
+      <c r="E84" s="4">
+        <v>708</v>
+      </c>
+      <c r="F84" s="4">
+        <v>997</v>
+      </c>
+      <c r="G84" s="4">
+        <v>757</v>
+      </c>
+      <c r="H84" s="4">
+        <v>628</v>
+      </c>
+      <c r="I84" s="4">
+        <v>762</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="14"/>
+        <v>1961</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="15"/>
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5010</v>
+      </c>
+      <c r="C85" s="4">
+        <v>496</v>
+      </c>
+      <c r="D85" s="4">
+        <v>662</v>
+      </c>
+      <c r="E85" s="4">
+        <v>708</v>
+      </c>
+      <c r="F85" s="4">
+        <v>997</v>
+      </c>
+      <c r="G85" s="4">
+        <v>757</v>
+      </c>
+      <c r="H85" s="4">
+        <v>628</v>
+      </c>
+      <c r="I85" s="4">
+        <v>762</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="14"/>
+        <v>1961</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="15"/>
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5012</v>
+      </c>
+      <c r="C86" s="4">
+        <v>496</v>
+      </c>
+      <c r="D86" s="4">
+        <v>663</v>
+      </c>
+      <c r="E86" s="4">
+        <v>708</v>
+      </c>
+      <c r="F86" s="4">
+        <v>997</v>
+      </c>
+      <c r="G86" s="4">
+        <v>757</v>
+      </c>
+      <c r="H86" s="4">
+        <v>629</v>
+      </c>
+      <c r="I86" s="4">
+        <v>762</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="14"/>
+        <v>1961</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="15"/>
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B87" s="4">
+        <v>5016</v>
+      </c>
+      <c r="C87" s="4">
+        <v>497</v>
+      </c>
+      <c r="D87" s="4">
+        <v>663</v>
+      </c>
+      <c r="E87" s="4">
+        <v>710</v>
+      </c>
+      <c r="F87" s="4">
+        <v>997</v>
+      </c>
+      <c r="G87" s="4">
+        <v>757</v>
+      </c>
+      <c r="H87" s="4">
+        <v>629</v>
+      </c>
+      <c r="I87" s="4">
+        <v>763</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" ref="J87" si="16">C87+E87+G87</f>
+        <v>1964</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" ref="K87" si="17">F87+H87+I87</f>
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B88">
+        <v>5024</v>
+      </c>
+      <c r="C88">
+        <v>498</v>
+      </c>
+      <c r="D88">
+        <v>664</v>
+      </c>
+      <c r="E88">
+        <v>712</v>
+      </c>
+      <c r="F88">
+        <v>998</v>
+      </c>
+      <c r="G88">
+        <v>757</v>
+      </c>
+      <c r="H88">
+        <v>631</v>
+      </c>
+      <c r="I88">
+        <v>764</v>
+      </c>
+      <c r="J88" s="4">
+        <f t="shared" ref="J88:J101" si="18">C88+E88+G88</f>
+        <v>1967</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" ref="K88:K101" si="19">F88+H88+I88</f>
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B89">
+        <v>5028</v>
+      </c>
+      <c r="C89">
+        <v>498</v>
+      </c>
+      <c r="D89">
+        <v>664</v>
+      </c>
+      <c r="E89">
+        <v>713</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="G89">
+        <v>758</v>
+      </c>
+      <c r="H89">
+        <v>631</v>
+      </c>
+      <c r="I89">
+        <v>764</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="18"/>
+        <v>1969</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="19"/>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B90">
+        <v>5030</v>
+      </c>
+      <c r="C90">
+        <v>498</v>
+      </c>
+      <c r="D90">
+        <v>664</v>
+      </c>
+      <c r="E90">
+        <v>713</v>
+      </c>
+      <c r="F90">
+        <v>1000</v>
+      </c>
+      <c r="G90">
+        <v>759</v>
+      </c>
+      <c r="H90">
+        <v>631</v>
+      </c>
+      <c r="I90">
+        <v>765</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="18"/>
+        <v>1970</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="19"/>
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B91">
+        <v>5036</v>
+      </c>
+      <c r="C91">
+        <v>498</v>
+      </c>
+      <c r="D91">
+        <v>666</v>
+      </c>
+      <c r="E91">
+        <v>713</v>
+      </c>
+      <c r="F91">
+        <v>1000</v>
+      </c>
+      <c r="G91">
+        <v>759</v>
+      </c>
+      <c r="H91">
+        <v>633</v>
+      </c>
+      <c r="I91">
+        <v>767</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="18"/>
+        <v>1970</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B92">
+        <v>5040</v>
+      </c>
+      <c r="C92">
+        <v>498</v>
+      </c>
+      <c r="D92">
+        <v>667</v>
+      </c>
+      <c r="E92">
+        <v>713</v>
+      </c>
+      <c r="F92">
+        <v>1002</v>
+      </c>
+      <c r="G92">
+        <v>759</v>
+      </c>
+      <c r="H92">
+        <v>633</v>
+      </c>
+      <c r="I92">
+        <v>768</v>
+      </c>
+      <c r="J92" s="4">
+        <f t="shared" si="18"/>
+        <v>1970</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="19"/>
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B93">
+        <v>5042</v>
+      </c>
+      <c r="C93">
+        <v>498</v>
+      </c>
+      <c r="D93">
+        <v>667</v>
+      </c>
+      <c r="E93">
+        <v>713</v>
+      </c>
+      <c r="F93">
+        <v>1002</v>
+      </c>
+      <c r="G93">
+        <v>759</v>
+      </c>
+      <c r="H93">
+        <v>634</v>
+      </c>
+      <c r="I93">
+        <v>769</v>
+      </c>
+      <c r="J93" s="4">
+        <f t="shared" si="18"/>
+        <v>1970</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="19"/>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B94">
+        <v>5047</v>
+      </c>
+      <c r="C94">
+        <v>499</v>
+      </c>
+      <c r="D94">
+        <v>670</v>
+      </c>
+      <c r="E94">
+        <v>714</v>
+      </c>
+      <c r="F94">
+        <v>1002</v>
+      </c>
+      <c r="G94">
+        <v>759</v>
+      </c>
+      <c r="H94">
+        <v>634</v>
+      </c>
+      <c r="I94">
+        <v>769</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" si="18"/>
+        <v>1972</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="19"/>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B95">
+        <v>5050</v>
+      </c>
+      <c r="C95">
+        <v>499</v>
+      </c>
+      <c r="D95">
+        <v>671</v>
+      </c>
+      <c r="E95">
+        <v>714</v>
+      </c>
+      <c r="F95">
+        <v>1002</v>
+      </c>
+      <c r="G95">
+        <v>760</v>
+      </c>
+      <c r="H95">
+        <v>634</v>
+      </c>
+      <c r="I95">
+        <v>770</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="18"/>
+        <v>1973</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="19"/>
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B96">
+        <v>5060</v>
+      </c>
+      <c r="C96">
+        <v>500</v>
+      </c>
+      <c r="D96">
+        <v>674</v>
+      </c>
+      <c r="E96">
+        <v>717</v>
+      </c>
+      <c r="F96">
+        <v>1002</v>
+      </c>
+      <c r="G96">
+        <v>762</v>
+      </c>
+      <c r="H96">
+        <v>635</v>
+      </c>
+      <c r="I96">
+        <v>770</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="18"/>
+        <v>1979</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="19"/>
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B97">
+        <v>5063</v>
+      </c>
+      <c r="C97">
+        <v>501</v>
+      </c>
+      <c r="D97">
+        <v>674</v>
+      </c>
+      <c r="E97">
+        <v>718</v>
+      </c>
+      <c r="F97">
+        <v>1003</v>
+      </c>
+      <c r="G97">
+        <v>762</v>
+      </c>
+      <c r="H97">
+        <v>635</v>
+      </c>
+      <c r="I97">
+        <v>770</v>
+      </c>
+      <c r="J97" s="4">
+        <f t="shared" si="18"/>
+        <v>1981</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="19"/>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B98">
+        <v>5068</v>
+      </c>
+      <c r="C98">
+        <v>501</v>
+      </c>
+      <c r="D98">
+        <v>675</v>
+      </c>
+      <c r="E98">
+        <v>719</v>
+      </c>
+      <c r="F98">
+        <v>1005</v>
+      </c>
+      <c r="G98">
+        <v>762</v>
+      </c>
+      <c r="H98">
+        <v>636</v>
+      </c>
+      <c r="I98">
+        <v>770</v>
+      </c>
+      <c r="J98" s="4">
+        <f t="shared" si="18"/>
+        <v>1982</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="19"/>
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B99">
+        <v>5070</v>
+      </c>
+      <c r="C99">
+        <v>501</v>
+      </c>
+      <c r="D99">
+        <v>675</v>
+      </c>
+      <c r="E99">
+        <v>719</v>
+      </c>
+      <c r="F99">
+        <v>1005</v>
+      </c>
+      <c r="G99">
+        <v>763</v>
+      </c>
+      <c r="H99">
+        <v>636</v>
+      </c>
+      <c r="I99">
+        <v>771</v>
+      </c>
+      <c r="J99" s="4">
+        <f t="shared" si="18"/>
+        <v>1983</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="19"/>
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B100">
+        <v>5071</v>
+      </c>
+      <c r="C100">
+        <v>501</v>
+      </c>
+      <c r="D100">
+        <v>675</v>
+      </c>
+      <c r="E100">
+        <v>719</v>
+      </c>
+      <c r="F100">
+        <v>1005</v>
+      </c>
+      <c r="G100">
+        <v>763</v>
+      </c>
+      <c r="H100">
+        <v>637</v>
+      </c>
+      <c r="I100">
+        <v>771</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" si="18"/>
+        <v>1983</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="19"/>
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B101">
+        <v>5071</v>
+      </c>
+      <c r="C101">
+        <v>501</v>
+      </c>
+      <c r="D101">
+        <v>675</v>
+      </c>
+      <c r="E101">
+        <v>719</v>
+      </c>
+      <c r="F101">
+        <v>1005</v>
+      </c>
+      <c r="G101">
+        <v>763</v>
+      </c>
+      <c r="H101">
+        <v>637</v>
+      </c>
+      <c r="I101">
+        <v>771</v>
+      </c>
+      <c r="J101" s="4">
+        <f t="shared" si="18"/>
+        <v>1983</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" si="19"/>
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5071</v>
+      </c>
+      <c r="C102" s="3">
+        <v>501</v>
+      </c>
+      <c r="D102" s="3">
+        <v>675</v>
+      </c>
+      <c r="E102" s="3">
+        <v>719</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1005</v>
+      </c>
+      <c r="G102" s="3">
+        <v>763</v>
+      </c>
+      <c r="H102" s="3">
+        <v>637</v>
+      </c>
+      <c r="I102" s="3">
+        <v>771</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" ref="J102" si="20">C102+E102+G102</f>
+        <v>1983</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" ref="K102" si="21">F102+H102+I102</f>
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5071</v>
+      </c>
+      <c r="C103" s="3">
+        <v>501</v>
+      </c>
+      <c r="D103" s="3">
+        <v>675</v>
+      </c>
+      <c r="E103" s="3">
+        <v>719</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1005</v>
+      </c>
+      <c r="G103" s="3">
+        <v>763</v>
+      </c>
+      <c r="H103" s="3">
+        <v>637</v>
+      </c>
+      <c r="I103" s="3">
+        <v>771</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" ref="J103" si="22">C103+E103+G103</f>
+        <v>1983</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" ref="K103" si="23">F103+H103+I103</f>
+        <v>2413</v>
       </c>
     </row>
   </sheetData>
